--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproject\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE959BC9-CC6F-4A7F-B171-A3CB0883D6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49144A-5147-474D-AD33-8D6264EA2E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="420" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>13.05</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>-friend,functii lamda, clase statice</t>
+  </si>
+  <si>
+    <t>20.05</t>
+  </si>
+  <si>
+    <t>project deschis si compilat</t>
+  </si>
+  <si>
+    <t>clona proiect, git tuturial, c++ carte, compilat</t>
+  </si>
+  <si>
+    <t>placuta si debuger, clasa BusAnalizer review</t>
+  </si>
+  <si>
+    <t>clona proiect, clasa gpio inceputa</t>
+  </si>
+  <si>
+    <t>-explicatii despre registri GPIO</t>
   </si>
 </sst>
 </file>
@@ -427,7 +445,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,13 +497,25 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>

--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproject\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D49144A-5147-474D-AD33-8D6264EA2E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11455813-0199-4789-8D9B-A21058CA9457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="420" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="435" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>13.05</t>
   </si>
@@ -54,9 +54,6 @@
     <t>cubeIDE instalat</t>
   </si>
   <si>
-    <t>ToDo</t>
-  </si>
-  <si>
     <t>-friend,functii lamda, clase statice</t>
   </si>
   <si>
@@ -76,6 +73,31 @@
   </si>
   <si>
     <t>-explicatii despre registri GPIO</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>ToDo BoTi</t>
+  </si>
+  <si>
+    <t>ToDo Team</t>
+  </si>
+  <si>
+    <t>clasa GPIO</t>
+  </si>
+  <si>
+    <t>start class GPIO, functia de initializare</t>
+  </si>
+  <si>
+    <t>clasa GPIO start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-rewrite GPIO driver in C++
+</t>
+  </si>
+  <si>
+    <t>-exemplu clasa friend</t>
   </si>
 </sst>
 </file>
@@ -91,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,11 +171,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -162,12 +203,26 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -445,7 +500,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +509,11 @@
     <col min="3" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -471,10 +527,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,48 +550,62 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -592,7 +665,6 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproject\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11455813-0199-4789-8D9B-A21058CA9457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0B152-39CF-437D-8CAF-4D8ED73DF368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="435" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>13.05</t>
   </si>
@@ -54,9 +54,6 @@
     <t>cubeIDE instalat</t>
   </si>
   <si>
-    <t>-friend,functii lamda, clase statice</t>
-  </si>
-  <si>
     <t>20.05</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>clona proiect, clasa gpio inceputa</t>
-  </si>
-  <si>
-    <t>-explicatii despre registri GPIO</t>
   </si>
   <si>
     <t>27.05</t>
@@ -98,6 +92,28 @@
   </si>
   <si>
     <t>-exemplu clasa friend</t>
+  </si>
+  <si>
+    <t>04.06</t>
+  </si>
+  <si>
+    <t>exemplu friend, branch proiect, video</t>
+  </si>
+  <si>
+    <t>clasa GPIO, exemplu friend</t>
+  </si>
+  <si>
+    <t>branch, scheletul clasei, instantiere</t>
+  </si>
+  <si>
+    <t>-functii lamda, clase statice</t>
+  </si>
+  <si>
+    <t>Andrei: CAN
+Gabriel: USB
+Ana: Timer
+Alina:RTC
+GPIO pe branch</t>
   </si>
 </sst>
 </file>
@@ -500,7 +516,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -550,68 +566,76 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>

--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproject\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0B152-39CF-437D-8CAF-4D8ED73DF368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F97A0-1501-4E84-AD81-DBC25E2D0595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="435" windowWidth="27000" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>13.05</t>
   </si>
@@ -114,6 +114,33 @@
 Ana: Timer
 Alina:RTC
 GPIO pe branch</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>creat toate functiile</t>
+  </si>
+  <si>
+    <t>doar functia de initializare</t>
+  </si>
+  <si>
+    <t>doar clasa</t>
+  </si>
+  <si>
+    <t>si membri inclusiv structuri de date</t>
+  </si>
+  <si>
+    <t>clasa initialize +clasa virtuala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemetarea claselor </t>
+  </si>
+  <si>
+    <t>prezenatare cuvintul stic</t>
+  </si>
+  <si>
+    <t>22.06</t>
   </si>
 </sst>
 </file>
@@ -204,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -228,6 +255,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +544,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,21 +668,39 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>

--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myproject\BusAnalizer\tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F97A0-1501-4E84-AD81-DBC25E2D0595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD83BF-9D8B-433F-B9D8-B8F9D8AB79CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>13.05</t>
   </si>
@@ -116,9 +116,6 @@
 GPIO pe branch</t>
   </si>
   <si>
-    <t>8.06</t>
-  </si>
-  <si>
     <t>creat toate functiile</t>
   </si>
   <si>
@@ -137,10 +134,28 @@
     <t xml:space="preserve">implemetarea claselor </t>
   </si>
   <si>
-    <t>prezenatare cuvintul stic</t>
-  </si>
-  <si>
     <t>22.06</t>
+  </si>
+  <si>
+    <t>functia deninit si functia de setare a timerul</t>
+  </si>
+  <si>
+    <t>cod compilabil pentru clasa de USB</t>
+  </si>
+  <si>
+    <t>definirea de clasa FDCAN, declararea metodelor</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>clasa GPIO terminat</t>
+  </si>
+  <si>
+    <t>prezenatare cuvintul static, prezentare design patterns, threads,procese,taskuri</t>
   </si>
 </sst>
 </file>
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -255,7 +270,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,20 +557,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
     <col min="3" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -577,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +616,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -623,7 +637,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -646,7 +660,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -667,39 +681,41 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -707,18 +723,26 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -729,7 +753,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -739,7 +763,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -750,7 +774,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -761,42 +785,42 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>

--- a/tracking/Tracking.xlsx
+++ b/tracking/Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\BusAnalizer\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD83BF-9D8B-433F-B9D8-B8F9D8AB79CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E5734-0A7D-4227-9991-16F7227C2E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>13.05</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>prezenatare cuvintul static, prezentare design patterns, threads,procese,taskuri</t>
+  </si>
+  <si>
+    <t>22.07</t>
+  </si>
+  <si>
+    <t>schimbari majore in clasa</t>
+  </si>
+  <si>
+    <t>FDCAN metoda init si apelata</t>
   </si>
 </sst>
 </file>
@@ -557,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,11 +752,17 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
